--- a/Data/EC/NIT-9009905604.xlsx
+++ b/Data/EC/NIT-9009905604.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2583D9-7C95-4331-AD4B-F06DBEF5407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AAAEF87-3C57-4CF0-BBE4-2C8C675B59B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{101ED248-CF7F-4D86-9A6A-1B1046E07B2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{212737E7-A79E-4F45-B524-8D52D8742631}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F14A7F-3A23-33FE-50C8-BB2D69893C93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3446BF8B-99E9-F723-385F-D2EBADE39526}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,28 +851,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88975981-FAB6-48F6-AC1A-A882A32D01A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C1B6D-4C8A-4342-A808-F276453D076D}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -885,7 +885,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -896,7 +896,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -907,7 +907,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -918,8 +918,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -934,8 +934,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -950,8 +950,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -966,8 +966,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="32" t="s">
         <v>25</v>
       </c>

--- a/Data/EC/NIT-9009905604.xlsx
+++ b/Data/EC/NIT-9009905604.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AAAEF87-3C57-4CF0-BBE4-2C8C675B59B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43FFE67-2453-43E2-B2F4-D76EBD2FA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{212737E7-A79E-4F45-B524-8D52D8742631}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85CA7DD8-DB08-4A26-B024-E7041DB1369E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,22 +185,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -400,23 +400,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,10 +444,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -485,13 +485,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -500,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3446BF8B-99E9-F723-385F-D2EBADE39526}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C6EAA2-EA3C-FF40-4DB3-EE69D2C02F1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,7 +522,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -851,28 +851,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7C1B6D-4C8A-4342-A808-F276453D076D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA25546-DCBE-41C5-BEB3-7CF4129071A3}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -885,7 +885,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -896,7 +896,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -907,7 +907,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -918,8 +918,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -934,8 +934,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -950,8 +950,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -966,8 +966,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="32" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="32" t="s">
         <v>25</v>
       </c>

--- a/Data/EC/NIT-9009905604.xlsx
+++ b/Data/EC/NIT-9009905604.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43FFE67-2453-43E2-B2F4-D76EBD2FA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE68E13C-CFD0-41EF-A589-30B349DE1466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85CA7DD8-DB08-4A26-B024-E7041DB1369E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BCE7995-1A74-4C7C-BAC1-0C5DD19E1B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,22 +185,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -394,29 +394,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,19 +435,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -485,13 +491,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189350</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -500,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C6EAA2-EA3C-FF40-4DB3-EE69D2C02F1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76285B9-E6D7-8892-6DCB-B1F2C8C7A41B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,7 +528,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680600" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -851,80 +857,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA25546-DCBE-41C5-BEB3-7CF4129071A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFC2EE1-1447-4AE0-91F8-5A900934D59E}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -934,13 +940,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009905604</v>
       </c>
@@ -950,13 +956,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>156000</v>
       </c>
@@ -966,8 +972,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
@@ -986,7 +992,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1025,20 +1031,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>52000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1300000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1048,58 +1054,58 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>52000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1300000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="21" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="26">
         <v>52000</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="26">
         <v>1300000</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="32" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="34"/>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="34"/>
       <c r="H24" s="1" t="s">
         <v>27</v>
       </c>
